--- a/powerbi/powerbi_sample_dataset/customer.xlsx
+++ b/powerbi/powerbi_sample_dataset/customer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26516"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_f97\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bytesizetrainings-my.sharepoint.com/personal/sunil_nair_bytesizetrainings_com/Documents/ByteSize/PowerBI_Data_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{66CDE496-2F6D-4D25-A81D-EB8C5D110570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{003E0963-F4A0-4C51-93F2-F2BE299BE228}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{66CDE496-2F6D-4D25-A81D-EB8C5D110570}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{1970076C-6D97-4D6E-866E-281E3F4535EA}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -23604,7 +23604,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24141,6 +24141,28 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6270D2EC-0312-4C06-8458-F9CF40DFF452}" name="customer_table" displayName="customer_table" ref="A1:M999" totalsRowShown="0">
+  <autoFilter ref="A1:M999" xr:uid="{C7B332F4-5F88-41F1-A4EE-CE9FF20E3841}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{DF4D1139-1D58-4A76-93B6-3850E201945A}" name="client_id"/>
+    <tableColumn id="2" xr3:uid="{B6545059-34A9-4DFC-8966-64EE968A9BBE}" name="gender"/>
+    <tableColumn id="3" xr3:uid="{BA183628-DA7C-43EC-8415-FBC31CEEAC55}" name="birthdate"/>
+    <tableColumn id="4" xr3:uid="{DD5B2CA6-B4DC-4921-ADCD-BA79A3689036}" name="social"/>
+    <tableColumn id="5" xr3:uid="{9911EEB4-00C8-4F88-8200-78D2DED0C846}" name="first"/>
+    <tableColumn id="6" xr3:uid="{031EE0C8-1D3D-4CF1-8180-EB6AE184B429}" name="middle"/>
+    <tableColumn id="7" xr3:uid="{2CE69275-E874-4FE0-96F6-75E940310F6B}" name="last"/>
+    <tableColumn id="8" xr3:uid="{DC6DC5A2-EE85-4E26-95E5-6AE2D207E44F}" name="phone"/>
+    <tableColumn id="9" xr3:uid="{0FB3786A-D96B-4E7D-A490-26763AB5A15E}" name="email"/>
+    <tableColumn id="10" xr3:uid="{89919718-34BB-47DE-950D-33A1EA4B31A2}" name="address_1"/>
+    <tableColumn id="11" xr3:uid="{511214E1-695E-4A88-9833-7FBD14D04B78}" name="address_2"/>
+    <tableColumn id="12" xr3:uid="{5164CE54-E571-4F46-9AC9-3CC44DD70A52}" name="zipcode"/>
+    <tableColumn id="13" xr3:uid="{A630F2B5-602F-4475-A470-2CFF08DCE34D}" name="district_id"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -24440,11 +24462,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24485,7 +24523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -24526,7 +24564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -24564,7 +24602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -24602,7 +24640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -24640,7 +24678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -24678,7 +24716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -24719,7 +24757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -24757,7 +24795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -24795,7 +24833,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -24833,7 +24871,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -24871,7 +24909,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -24909,7 +24947,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -24947,7 +24985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -24985,7 +25023,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -25023,7 +25061,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>143</v>
       </c>
@@ -25061,7 +25099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -25102,7 +25140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -25140,7 +25178,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>171</v>
       </c>
@@ -25178,7 +25216,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>180</v>
       </c>
@@ -25216,7 +25254,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>189</v>
       </c>
@@ -25254,7 +25292,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>198</v>
       </c>
@@ -25292,7 +25330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -25333,7 +25371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>217</v>
       </c>
@@ -25371,7 +25409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>226</v>
       </c>
@@ -25409,7 +25447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>235</v>
       </c>
@@ -25447,7 +25485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>244</v>
       </c>
@@ -25488,7 +25526,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>254</v>
       </c>
@@ -25526,7 +25564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>263</v>
       </c>
@@ -25564,7 +25602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>272</v>
       </c>
@@ -25602,7 +25640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>281</v>
       </c>
@@ -25640,7 +25678,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>290</v>
       </c>
@@ -25678,7 +25716,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>299</v>
       </c>
@@ -25716,7 +25754,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>308</v>
       </c>
@@ -25754,7 +25792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>317</v>
       </c>
@@ -25792,7 +25830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>324</v>
       </c>
@@ -25830,7 +25868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>333</v>
       </c>
@@ -25868,7 +25906,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>340</v>
       </c>
@@ -25906,7 +25944,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>348</v>
       </c>
@@ -25944,7 +25982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>355</v>
       </c>
@@ -25982,7 +26020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>364</v>
       </c>
@@ -26020,7 +26058,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>373</v>
       </c>
@@ -26061,7 +26099,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>383</v>
       </c>
@@ -26099,7 +26137,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>391</v>
       </c>
@@ -26137,7 +26175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>400</v>
       </c>
@@ -26175,7 +26213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>407</v>
       </c>
@@ -26213,7 +26251,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>416</v>
       </c>
@@ -26254,7 +26292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>425</v>
       </c>
@@ -26292,7 +26330,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>432</v>
       </c>
@@ -26330,7 +26368,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>439</v>
       </c>
@@ -26368,7 +26406,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>446</v>
       </c>
@@ -26406,7 +26444,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>455</v>
       </c>
@@ -26444,7 +26482,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>464</v>
       </c>
@@ -26482,7 +26520,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>471</v>
       </c>
@@ -26520,7 +26558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>480</v>
       </c>
@@ -26558,7 +26596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>487</v>
       </c>
@@ -26596,7 +26634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>494</v>
       </c>
@@ -26634,7 +26672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>503</v>
       </c>
@@ -26672,7 +26710,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>511</v>
       </c>
@@ -26710,7 +26748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>518</v>
       </c>
@@ -26748,7 +26786,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>527</v>
       </c>
@@ -26786,7 +26824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>536</v>
       </c>
@@ -26824,7 +26862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>545</v>
       </c>
@@ -26862,7 +26900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>552</v>
       </c>
@@ -26900,7 +26938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>559</v>
       </c>
@@ -26938,7 +26976,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>566</v>
       </c>
@@ -26976,7 +27014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>575</v>
       </c>
@@ -27014,7 +27052,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>584</v>
       </c>
@@ -27052,7 +27090,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>591</v>
       </c>
@@ -27090,7 +27128,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>600</v>
       </c>
@@ -27128,7 +27166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>609</v>
       </c>
@@ -27166,7 +27204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>616</v>
       </c>
@@ -27204,7 +27242,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>623</v>
       </c>
@@ -27242,7 +27280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>630</v>
       </c>
@@ -27280,7 +27318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>637</v>
       </c>
@@ -27318,7 +27356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>644</v>
       </c>
@@ -27356,7 +27394,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>651</v>
       </c>
@@ -27394,7 +27432,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>658</v>
       </c>
@@ -27432,7 +27470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>667</v>
       </c>
@@ -27470,7 +27508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>674</v>
       </c>
@@ -27508,7 +27546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>681</v>
       </c>
@@ -27546,7 +27584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>690</v>
       </c>
@@ -27584,7 +27622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>699</v>
       </c>
@@ -27622,7 +27660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>706</v>
       </c>
@@ -27660,7 +27698,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>713</v>
       </c>
@@ -27698,7 +27736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>720</v>
       </c>
@@ -27736,7 +27774,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>729</v>
       </c>
@@ -27774,7 +27812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>738</v>
       </c>
@@ -27812,7 +27850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>745</v>
       </c>
@@ -27850,7 +27888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>754</v>
       </c>
@@ -27891,7 +27929,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>764</v>
       </c>
@@ -27929,7 +27967,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>771</v>
       </c>
@@ -27967,7 +28005,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>780</v>
       </c>
@@ -28005,7 +28043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>789</v>
       </c>
@@ -28043,7 +28081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>796</v>
       </c>
@@ -28081,7 +28119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>805</v>
       </c>
@@ -28122,7 +28160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>813</v>
       </c>
@@ -28160,7 +28198,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>822</v>
       </c>
@@ -28198,7 +28236,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>829</v>
       </c>
@@ -28236,7 +28274,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>838</v>
       </c>
@@ -28274,7 +28312,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>845</v>
       </c>
@@ -28312,7 +28350,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>852</v>
       </c>
@@ -28350,7 +28388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>861</v>
       </c>
@@ -28388,7 +28426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>870</v>
       </c>
@@ -28426,7 +28464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>877</v>
       </c>
@@ -28464,7 +28502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>885</v>
       </c>
@@ -28502,7 +28540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>892</v>
       </c>
@@ -28540,7 +28578,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>899</v>
       </c>
@@ -28578,7 +28616,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>908</v>
       </c>
@@ -28616,7 +28654,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>917</v>
       </c>
@@ -28654,7 +28692,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>924</v>
       </c>
@@ -28692,7 +28730,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>933</v>
       </c>
@@ -28730,7 +28768,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>940</v>
       </c>
@@ -28768,7 +28806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>949</v>
       </c>
@@ -28806,7 +28844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>956</v>
       </c>
@@ -28844,7 +28882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>963</v>
       </c>
@@ -28882,7 +28920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>972</v>
       </c>
@@ -28920,7 +28958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>981</v>
       </c>
@@ -28958,7 +28996,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>990</v>
       </c>
@@ -28996,7 +29034,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>997</v>
       </c>
@@ -29034,7 +29072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1004</v>
       </c>
@@ -29072,7 +29110,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1011</v>
       </c>
@@ -29110,7 +29148,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1018</v>
       </c>
@@ -29148,7 +29186,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1027</v>
       </c>
@@ -29186,7 +29224,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1034</v>
       </c>
@@ -29224,7 +29262,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1043</v>
       </c>
@@ -29262,7 +29300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1052</v>
       </c>
@@ -29300,7 +29338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1059</v>
       </c>
@@ -29338,7 +29376,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1066</v>
       </c>
@@ -29379,7 +29417,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1075</v>
       </c>
@@ -29417,7 +29455,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1082</v>
       </c>
@@ -29455,7 +29493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1089</v>
       </c>
@@ -29493,7 +29531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1098</v>
       </c>
@@ -29531,7 +29569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1106</v>
       </c>
@@ -29569,7 +29607,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1115</v>
       </c>
@@ -29607,7 +29645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1124</v>
       </c>
@@ -29645,7 +29683,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1133</v>
       </c>
@@ -29683,7 +29721,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1142</v>
       </c>
@@ -29721,7 +29759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1149</v>
       </c>
@@ -29759,7 +29797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1156</v>
       </c>
@@ -29797,7 +29835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1165</v>
       </c>
@@ -29835,7 +29873,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1174</v>
       </c>
@@ -29873,7 +29911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1181</v>
       </c>
@@ -29911,7 +29949,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1188</v>
       </c>
@@ -29949,7 +29987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1195</v>
       </c>
@@ -29987,7 +30025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1202</v>
       </c>
@@ -30028,7 +30066,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1212</v>
       </c>
@@ -30066,7 +30104,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1219</v>
       </c>
@@ -30104,7 +30142,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1225</v>
       </c>
@@ -30142,7 +30180,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1232</v>
       </c>
@@ -30180,7 +30218,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1239</v>
       </c>
@@ -30218,7 +30256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1246</v>
       </c>
@@ -30256,7 +30294,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1253</v>
       </c>
@@ -30294,7 +30332,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1260</v>
       </c>
@@ -30332,7 +30370,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1269</v>
       </c>
@@ -30370,7 +30408,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1278</v>
       </c>
@@ -30408,7 +30446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1285</v>
       </c>
@@ -30446,7 +30484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1294</v>
       </c>
@@ -30484,7 +30522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1301</v>
       </c>
@@ -30522,7 +30560,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1308</v>
       </c>
@@ -30560,7 +30598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1315</v>
       </c>
@@ -30598,7 +30636,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1324</v>
       </c>
@@ -30636,7 +30674,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1331</v>
       </c>
@@ -30674,7 +30712,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1339</v>
       </c>
@@ -30712,7 +30750,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1346</v>
       </c>
@@ -30750,7 +30788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1353</v>
       </c>
@@ -30788,7 +30826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1362</v>
       </c>
@@ -30826,7 +30864,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1371</v>
       </c>
@@ -30864,7 +30902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1380</v>
       </c>
@@ -30902,7 +30940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1389</v>
       </c>
@@ -30940,7 +30978,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1398</v>
       </c>
@@ -30978,7 +31016,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1407</v>
       </c>
@@ -31016,7 +31054,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1416</v>
       </c>
@@ -31054,7 +31092,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1423</v>
       </c>
@@ -31092,7 +31130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1430</v>
       </c>
@@ -31130,7 +31168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1439</v>
       </c>
@@ -31168,7 +31206,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1448</v>
       </c>
@@ -31206,7 +31244,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1455</v>
       </c>
@@ -31244,7 +31282,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1463</v>
       </c>
@@ -31282,7 +31320,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1472</v>
       </c>
@@ -31320,7 +31358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1481</v>
       </c>
@@ -31358,7 +31396,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1488</v>
       </c>
@@ -31396,7 +31434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1497</v>
       </c>
@@ -31434,7 +31472,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1506</v>
       </c>
@@ -31472,7 +31510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1515</v>
       </c>
@@ -31510,7 +31548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1522</v>
       </c>
@@ -31548,7 +31586,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1530</v>
       </c>
@@ -31586,7 +31624,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1537</v>
       </c>
@@ -31624,7 +31662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1546</v>
       </c>
@@ -31662,7 +31700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1555</v>
       </c>
@@ -31700,7 +31738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1564</v>
       </c>
@@ -31738,7 +31776,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1571</v>
       </c>
@@ -31776,7 +31814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1578</v>
       </c>
@@ -31814,7 +31852,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1585</v>
       </c>
@@ -31852,7 +31890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1594</v>
       </c>
@@ -31890,7 +31928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1601</v>
       </c>
@@ -31928,7 +31966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1608</v>
       </c>
@@ -31966,7 +32004,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1615</v>
       </c>
@@ -32004,7 +32042,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1623</v>
       </c>
@@ -32042,7 +32080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1630</v>
       </c>
@@ -32080,7 +32118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1639</v>
       </c>
@@ -32118,7 +32156,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1648</v>
       </c>
@@ -32156,7 +32194,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1655</v>
       </c>
@@ -32197,7 +32235,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1665</v>
       </c>
@@ -32235,7 +32273,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1674</v>
       </c>
@@ -32273,7 +32311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1683</v>
       </c>
@@ -32311,7 +32349,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1690</v>
       </c>
@@ -32349,7 +32387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1697</v>
       </c>
@@ -32387,7 +32425,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1704</v>
       </c>
@@ -32425,7 +32463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1711</v>
       </c>
@@ -32463,7 +32501,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1718</v>
       </c>
@@ -32501,7 +32539,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1725</v>
       </c>
@@ -32539,7 +32577,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1734</v>
       </c>
@@ -32577,7 +32615,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1743</v>
       </c>
@@ -32615,7 +32653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1752</v>
       </c>
@@ -32653,7 +32691,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1758</v>
       </c>
@@ -32691,7 +32729,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1765</v>
       </c>
@@ -32729,7 +32767,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1774</v>
       </c>
@@ -32767,7 +32805,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1781</v>
       </c>
@@ -32808,7 +32846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1791</v>
       </c>
@@ -32846,7 +32884,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1798</v>
       </c>
@@ -32884,7 +32922,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1805</v>
       </c>
@@ -32922,7 +32960,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1814</v>
       </c>
@@ -32960,7 +32998,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1821</v>
       </c>
@@ -32998,7 +33036,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1830</v>
       </c>
@@ -33036,7 +33074,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1837</v>
       </c>
@@ -33074,7 +33112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1844</v>
       </c>
@@ -33112,7 +33150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1851</v>
       </c>
@@ -33153,7 +33191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1859</v>
       </c>
@@ -33191,7 +33229,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1868</v>
       </c>
@@ -33229,7 +33267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1875</v>
       </c>
@@ -33267,7 +33305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1883</v>
       </c>
@@ -33305,7 +33343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1890</v>
       </c>
@@ -33343,7 +33381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1899</v>
       </c>
@@ -33381,7 +33419,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1905</v>
       </c>
@@ -33419,7 +33457,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1914</v>
       </c>
@@ -33457,7 +33495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1921</v>
       </c>
@@ -33495,7 +33533,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1928</v>
       </c>
@@ -33533,7 +33571,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1935</v>
       </c>
@@ -33571,7 +33609,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1942</v>
       </c>
@@ -33609,7 +33647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1950</v>
       </c>
@@ -33647,7 +33685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1957</v>
       </c>
@@ -33685,7 +33723,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1964</v>
       </c>
@@ -33723,7 +33761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1971</v>
       </c>
@@ -33761,7 +33799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1980</v>
       </c>
@@ -33799,7 +33837,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1989</v>
       </c>
@@ -33837,7 +33875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1996</v>
       </c>
@@ -33875,7 +33913,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>2003</v>
       </c>
@@ -33913,7 +33951,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>2012</v>
       </c>
@@ -33951,7 +33989,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>2020</v>
       </c>
@@ -33989,7 +34027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>2029</v>
       </c>
@@ -34027,7 +34065,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>2036</v>
       </c>
@@ -34065,7 +34103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>2043</v>
       </c>
@@ -34103,7 +34141,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>2052</v>
       </c>
@@ -34141,7 +34179,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>2059</v>
       </c>
@@ -34179,7 +34217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>2066</v>
       </c>
@@ -34217,7 +34255,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>2075</v>
       </c>
@@ -34255,7 +34293,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>2082</v>
       </c>
@@ -34293,7 +34331,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>2089</v>
       </c>
@@ -34331,7 +34369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>2096</v>
       </c>
@@ -34369,7 +34407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>2103</v>
       </c>
@@ -34407,7 +34445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>2110</v>
       </c>
@@ -34445,7 +34483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>2119</v>
       </c>
@@ -34483,7 +34521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>2125</v>
       </c>
@@ -34524,7 +34562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>2133</v>
       </c>
@@ -34562,7 +34600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>2141</v>
       </c>
@@ -34600,7 +34638,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>2148</v>
       </c>
@@ -34638,7 +34676,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>2155</v>
       </c>
@@ -34676,7 +34714,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>2164</v>
       </c>
@@ -34714,7 +34752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>2173</v>
       </c>
@@ -34752,7 +34790,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>2182</v>
       </c>
@@ -34790,7 +34828,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>2189</v>
       </c>
@@ -34828,7 +34866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>2198</v>
       </c>
@@ -34866,7 +34904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>2207</v>
       </c>
@@ -34904,7 +34942,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>2216</v>
       </c>
@@ -34942,7 +34980,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>2224</v>
       </c>
@@ -34980,7 +35018,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>2231</v>
       </c>
@@ -35018,7 +35056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>2238</v>
       </c>
@@ -35056,7 +35094,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>2247</v>
       </c>
@@ -35097,7 +35135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>2257</v>
       </c>
@@ -35135,7 +35173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>2266</v>
       </c>
@@ -35173,7 +35211,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>2274</v>
       </c>
@@ -35211,7 +35249,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>2281</v>
       </c>
@@ -35249,7 +35287,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>2290</v>
       </c>
@@ -35287,7 +35325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>2297</v>
       </c>
@@ -35325,7 +35363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>2306</v>
       </c>
@@ -35363,7 +35401,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>2315</v>
       </c>
@@ -35401,7 +35439,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>2324</v>
       </c>
@@ -35439,7 +35477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>2331</v>
       </c>
@@ -35477,7 +35515,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>2340</v>
       </c>
@@ -35515,7 +35553,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>2347</v>
       </c>
@@ -35553,7 +35591,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>2354</v>
       </c>
@@ -35591,7 +35629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>2363</v>
       </c>
@@ -35629,7 +35667,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>2370</v>
       </c>
@@ -35667,7 +35705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>2379</v>
       </c>
@@ -35705,7 +35743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>2386</v>
       </c>
@@ -35743,7 +35781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>2395</v>
       </c>
@@ -35781,7 +35819,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>2404</v>
       </c>
@@ -35819,7 +35857,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>2413</v>
       </c>
@@ -35857,7 +35895,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>2420</v>
       </c>
@@ -35895,7 +35933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>2427</v>
       </c>
@@ -35933,7 +35971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>2434</v>
       </c>
@@ -35971,7 +36009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>2443</v>
       </c>
@@ -36009,7 +36047,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>2450</v>
       </c>
@@ -36047,7 +36085,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>2459</v>
       </c>
@@ -36085,7 +36123,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>2466</v>
       </c>
@@ -36123,7 +36161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>2475</v>
       </c>
@@ -36164,7 +36202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>2485</v>
       </c>
@@ -36202,7 +36240,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>2492</v>
       </c>
@@ -36240,7 +36278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>2501</v>
       </c>
@@ -36278,7 +36316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>2508</v>
       </c>
@@ -36316,7 +36354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>2517</v>
       </c>
@@ -36354,7 +36392,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>2524</v>
       </c>
@@ -36392,7 +36430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>2533</v>
       </c>
@@ -36430,7 +36468,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>2541</v>
       </c>
@@ -36468,7 +36506,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>2550</v>
       </c>
@@ -36506,7 +36544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>2559</v>
       </c>
@@ -36544,7 +36582,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>2566</v>
       </c>
@@ -36582,7 +36620,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>2573</v>
       </c>
@@ -36620,7 +36658,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>2581</v>
       </c>
@@ -36658,7 +36696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>2588</v>
       </c>
@@ -36696,7 +36734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>2597</v>
       </c>
@@ -36734,7 +36772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>2604</v>
       </c>
@@ -36772,7 +36810,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>2613</v>
       </c>
@@ -36810,7 +36848,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>2620</v>
       </c>
@@ -36848,7 +36886,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>2628</v>
       </c>
@@ -36886,7 +36924,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>2634</v>
       </c>
@@ -36924,7 +36962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>2643</v>
       </c>
@@ -36962,7 +37000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>2650</v>
       </c>
@@ -37000,7 +37038,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>2659</v>
       </c>
@@ -37038,7 +37076,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>2666</v>
       </c>
@@ -37076,7 +37114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>2673</v>
       </c>
@@ -37114,7 +37152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>2680</v>
       </c>
@@ -37152,7 +37190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>2689</v>
       </c>
@@ -37190,7 +37228,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>2697</v>
       </c>
@@ -37228,7 +37266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>2706</v>
       </c>
@@ -37266,7 +37304,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>2713</v>
       </c>
@@ -37304,7 +37342,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>2722</v>
       </c>
@@ -37342,7 +37380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>2729</v>
       </c>
@@ -37380,7 +37418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>2738</v>
       </c>
@@ -37418,7 +37456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>2745</v>
       </c>
@@ -37456,7 +37494,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>2754</v>
       </c>
@@ -37494,7 +37532,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="343" spans="1:13">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>2763</v>
       </c>
@@ -37532,7 +37570,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="344" spans="1:13">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>2770</v>
       </c>
@@ -37570,7 +37608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="345" spans="1:13">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>2777</v>
       </c>
@@ -37608,7 +37646,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="346" spans="1:13">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>2785</v>
       </c>
@@ -37646,7 +37684,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="347" spans="1:13">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>2792</v>
       </c>
@@ -37684,7 +37722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:13">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>2801</v>
       </c>
@@ -37722,7 +37760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:13">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>2808</v>
       </c>
@@ -37760,7 +37798,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="350" spans="1:13">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>2815</v>
       </c>
@@ -37798,7 +37836,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="351" spans="1:13">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>2824</v>
       </c>
@@ -37836,7 +37874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:13">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>2831</v>
       </c>
@@ -37874,7 +37912,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="353" spans="1:13">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>2838</v>
       </c>
@@ -37912,7 +37950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:13">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>2847</v>
       </c>
@@ -37950,7 +37988,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="355" spans="1:13">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>2856</v>
       </c>
@@ -37988,7 +38026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="1:13">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>2865</v>
       </c>
@@ -38026,7 +38064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="357" spans="1:13">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>2874</v>
       </c>
@@ -38064,7 +38102,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="358" spans="1:13">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>2881</v>
       </c>
@@ -38102,7 +38140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="1:13">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>2888</v>
       </c>
@@ -38140,7 +38178,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="360" spans="1:13">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>2896</v>
       </c>
@@ -38178,7 +38216,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="361" spans="1:13">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>2903</v>
       </c>
@@ -38216,7 +38254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="362" spans="1:13">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>2911</v>
       </c>
@@ -38254,7 +38292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="363" spans="1:13">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>2918</v>
       </c>
@@ -38292,7 +38330,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="364" spans="1:13">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>2927</v>
       </c>
@@ -38330,7 +38368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:13">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>2934</v>
       </c>
@@ -38368,7 +38406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:13">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>2943</v>
       </c>
@@ -38406,7 +38444,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="367" spans="1:13">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>2952</v>
       </c>
@@ -38444,7 +38482,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="368" spans="1:13">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>2961</v>
       </c>
@@ -38482,7 +38520,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="369" spans="1:13">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>2969</v>
       </c>
@@ -38520,7 +38558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="370" spans="1:13">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>2976</v>
       </c>
@@ -38558,7 +38596,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="371" spans="1:13">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>2983</v>
       </c>
@@ -38596,7 +38634,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="372" spans="1:13">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>2990</v>
       </c>
@@ -38634,7 +38672,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="373" spans="1:13">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>2997</v>
       </c>
@@ -38672,7 +38710,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="374" spans="1:13">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>3003</v>
       </c>
@@ -38710,7 +38748,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="375" spans="1:13">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>3012</v>
       </c>
@@ -38748,7 +38786,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="376" spans="1:13">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>3019</v>
       </c>
@@ -38786,7 +38824,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="377" spans="1:13">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>3027</v>
       </c>
@@ -38824,7 +38862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:13">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>3036</v>
       </c>
@@ -38862,7 +38900,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="379" spans="1:13">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>3044</v>
       </c>
@@ -38900,7 +38938,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="380" spans="1:13">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>3051</v>
       </c>
@@ -38938,7 +38976,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="381" spans="1:13">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>3059</v>
       </c>
@@ -38976,7 +39014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:13">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>3068</v>
       </c>
@@ -39014,7 +39052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:13">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>3075</v>
       </c>
@@ -39052,7 +39090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:13">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>3084</v>
       </c>
@@ -39090,7 +39128,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="385" spans="1:13">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>3091</v>
       </c>
@@ -39128,7 +39166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="386" spans="1:13">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>3100</v>
       </c>
@@ -39166,7 +39204,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="387" spans="1:13">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>3107</v>
       </c>
@@ -39204,7 +39242,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="388" spans="1:13">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>3116</v>
       </c>
@@ -39242,7 +39280,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="389" spans="1:13">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>3123</v>
       </c>
@@ -39280,7 +39318,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="390" spans="1:13">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>3130</v>
       </c>
@@ -39318,7 +39356,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="391" spans="1:13">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>3138</v>
       </c>
@@ -39356,7 +39394,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="392" spans="1:13">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>3147</v>
       </c>
@@ -39394,7 +39432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="393" spans="1:13">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>3154</v>
       </c>
@@ -39435,7 +39473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="394" spans="1:13">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>3163</v>
       </c>
@@ -39473,7 +39511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="395" spans="1:13">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>3170</v>
       </c>
@@ -39514,7 +39552,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="396" spans="1:13">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>3178</v>
       </c>
@@ -39552,7 +39590,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="397" spans="1:13">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>3187</v>
       </c>
@@ -39590,7 +39628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:13">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>3194</v>
       </c>
@@ -39628,7 +39666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:13">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>3203</v>
       </c>
@@ -39666,7 +39704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="400" spans="1:13">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>3212</v>
       </c>
@@ -39704,7 +39742,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="401" spans="1:13">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>3219</v>
       </c>
@@ -39742,7 +39780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="402" spans="1:13">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>3228</v>
       </c>
@@ -39780,7 +39818,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="403" spans="1:13">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>3237</v>
       </c>
@@ -39818,7 +39856,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="404" spans="1:13">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>3246</v>
       </c>
@@ -39856,7 +39894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="405" spans="1:13">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>3255</v>
       </c>
@@ -39894,7 +39932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:13">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>3264</v>
       </c>
@@ -39932,7 +39970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="407" spans="1:13">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>3273</v>
       </c>
@@ -39970,7 +40008,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="408" spans="1:13">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>3282</v>
       </c>
@@ -40008,7 +40046,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="409" spans="1:13">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>3289</v>
       </c>
@@ -40046,7 +40084,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="410" spans="1:13">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>3296</v>
       </c>
@@ -40084,7 +40122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="411" spans="1:13">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>3303</v>
       </c>
@@ -40122,7 +40160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="412" spans="1:13">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>3312</v>
       </c>
@@ -40163,7 +40201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="413" spans="1:13">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>3320</v>
       </c>
@@ -40201,7 +40239,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="414" spans="1:13">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>3327</v>
       </c>
@@ -40239,7 +40277,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="415" spans="1:13">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>3336</v>
       </c>
@@ -40277,7 +40315,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="416" spans="1:13">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>3343</v>
       </c>
@@ -40315,7 +40353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="417" spans="1:13">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>3352</v>
       </c>
@@ -40353,7 +40391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:13">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>3360</v>
       </c>
@@ -40391,7 +40429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:13">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>3367</v>
       </c>
@@ -40429,7 +40467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="420" spans="1:13">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>3375</v>
       </c>
@@ -40467,7 +40505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="421" spans="1:13">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>3382</v>
       </c>
@@ -40505,7 +40543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" spans="1:13">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>3389</v>
       </c>
@@ -40543,7 +40581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:13">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>3398</v>
       </c>
@@ -40581,7 +40619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:13">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>3405</v>
       </c>
@@ -40619,7 +40657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:13">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>3414</v>
       </c>
@@ -40657,7 +40695,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="426" spans="1:13">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>3421</v>
       </c>
@@ -40695,7 +40733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:13">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>3428</v>
       </c>
@@ -40733,7 +40771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:13">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>3437</v>
       </c>
@@ -40771,7 +40809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="429" spans="1:13">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>3445</v>
       </c>
@@ -40809,7 +40847,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="430" spans="1:13">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>3452</v>
       </c>
@@ -40847,7 +40885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="431" spans="1:13">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>3461</v>
       </c>
@@ -40885,7 +40923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:13">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>3470</v>
       </c>
@@ -40923,7 +40961,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="433" spans="1:13">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>3477</v>
       </c>
@@ -40961,7 +40999,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="434" spans="1:13">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>3486</v>
       </c>
@@ -40999,7 +41037,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="435" spans="1:13">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>3493</v>
       </c>
@@ -41037,7 +41075,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="436" spans="1:13">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>3502</v>
       </c>
@@ -41075,7 +41113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="437" spans="1:13">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>3511</v>
       </c>
@@ -41116,7 +41154,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="438" spans="1:13">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>3521</v>
       </c>
@@ -41154,7 +41192,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="439" spans="1:13">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>3530</v>
       </c>
@@ -41192,7 +41230,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="440" spans="1:13">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>3537</v>
       </c>
@@ -41230,7 +41268,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="441" spans="1:13">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>3544</v>
       </c>
@@ -41268,7 +41306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="1:13">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>3553</v>
       </c>
@@ -41306,7 +41344,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="443" spans="1:13">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>3562</v>
       </c>
@@ -41344,7 +41382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="444" spans="1:13">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>3569</v>
       </c>
@@ -41382,7 +41420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:13">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>3577</v>
       </c>
@@ -41420,7 +41458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:13">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>3584</v>
       </c>
@@ -41458,7 +41496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:13">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>3593</v>
       </c>
@@ -41496,7 +41534,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="448" spans="1:13">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>3602</v>
       </c>
@@ -41534,7 +41572,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="449" spans="1:13">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>3609</v>
       </c>
@@ -41572,7 +41610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="450" spans="1:13">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>3616</v>
       </c>
@@ -41610,7 +41648,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="451" spans="1:13">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>3624</v>
       </c>
@@ -41648,7 +41686,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="452" spans="1:13">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>3633</v>
       </c>
@@ -41686,7 +41724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:13">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>3640</v>
       </c>
@@ -41724,7 +41762,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="454" spans="1:13">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>3648</v>
       </c>
@@ -41762,7 +41800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:13">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>3655</v>
       </c>
@@ -41800,7 +41838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:13">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>3663</v>
       </c>
@@ -41838,7 +41876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="457" spans="1:13">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>3671</v>
       </c>
@@ -41876,7 +41914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="458" spans="1:13">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>3680</v>
       </c>
@@ -41914,7 +41952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="459" spans="1:13">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>3687</v>
       </c>
@@ -41955,7 +41993,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="460" spans="1:13">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>3695</v>
       </c>
@@ -41993,7 +42031,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="461" spans="1:13">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>3701</v>
       </c>
@@ -42031,7 +42069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:13">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>3710</v>
       </c>
@@ -42069,7 +42107,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="463" spans="1:13">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>3717</v>
       </c>
@@ -42107,7 +42145,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="464" spans="1:13">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>3726</v>
       </c>
@@ -42145,7 +42183,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="465" spans="1:13">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>3735</v>
       </c>
@@ -42183,7 +42221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:13">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>3742</v>
       </c>
@@ -42221,7 +42259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:13">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>3750</v>
       </c>
@@ -42259,7 +42297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="468" spans="1:13">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>3759</v>
       </c>
@@ -42297,7 +42335,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="469" spans="1:13">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>3768</v>
       </c>
@@ -42335,7 +42373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="470" spans="1:13">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>3777</v>
       </c>
@@ -42373,7 +42411,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="471" spans="1:13">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>3786</v>
       </c>
@@ -42411,7 +42449,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="472" spans="1:13">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>3793</v>
       </c>
@@ -42449,7 +42487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:13">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>3802</v>
       </c>
@@ -42487,7 +42525,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="474" spans="1:13">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>3809</v>
       </c>
@@ -42528,7 +42566,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="475" spans="1:13">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>3816</v>
       </c>
@@ -42566,7 +42604,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="476" spans="1:13">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>3825</v>
       </c>
@@ -42604,7 +42642,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="477" spans="1:13">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>3832</v>
       </c>
@@ -42642,7 +42680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="478" spans="1:13">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>3839</v>
       </c>
@@ -42680,7 +42718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:13">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>3848</v>
       </c>
@@ -42721,7 +42759,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="480" spans="1:13">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>3857</v>
       </c>
@@ -42759,7 +42797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="481" spans="1:13">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>3866</v>
       </c>
@@ -42797,7 +42835,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="482" spans="1:13">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>3875</v>
       </c>
@@ -42835,7 +42873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="483" spans="1:13">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>3884</v>
       </c>
@@ -42873,7 +42911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="484" spans="1:13">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>3893</v>
       </c>
@@ -42911,7 +42949,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="485" spans="1:13">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>3902</v>
       </c>
@@ -42949,7 +42987,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="486" spans="1:13">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>3911</v>
       </c>
@@ -42987,7 +43025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="487" spans="1:13">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>3920</v>
       </c>
@@ -43025,7 +43063,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="488" spans="1:13">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>3928</v>
       </c>
@@ -43063,7 +43101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="489" spans="1:13">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>3937</v>
       </c>
@@ -43104,7 +43142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="490" spans="1:13">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>3946</v>
       </c>
@@ -43142,7 +43180,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="491" spans="1:13">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>3953</v>
       </c>
@@ -43180,7 +43218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="492" spans="1:13">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>3960</v>
       </c>
@@ -43218,7 +43256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="493" spans="1:13">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>3969</v>
       </c>
@@ -43256,7 +43294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:13">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>3978</v>
       </c>
@@ -43294,7 +43332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:13">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>3985</v>
       </c>
@@ -43335,7 +43373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="496" spans="1:13">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>3993</v>
       </c>
@@ -43373,7 +43411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="497" spans="1:13">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>4000</v>
       </c>
@@ -43411,7 +43449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="498" spans="1:13">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>4008</v>
       </c>
@@ -43449,7 +43487,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="499" spans="1:13">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>4015</v>
       </c>
@@ -43490,7 +43528,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="500" spans="1:13">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>4024</v>
       </c>
@@ -43528,7 +43566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:13">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>4031</v>
       </c>
@@ -43566,7 +43604,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="502" spans="1:13">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>4038</v>
       </c>
@@ -43604,7 +43642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="503" spans="1:13">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>4045</v>
       </c>
@@ -43642,7 +43680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="504" spans="1:13">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>4054</v>
       </c>
@@ -43680,7 +43718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="505" spans="1:13">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>4063</v>
       </c>
@@ -43718,7 +43756,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="506" spans="1:13">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>4070</v>
       </c>
@@ -43756,7 +43794,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="507" spans="1:13">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>4079</v>
       </c>
@@ -43794,7 +43832,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="508" spans="1:13">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>4088</v>
       </c>
@@ -43832,7 +43870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="509" spans="1:13">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>4095</v>
       </c>
@@ -43870,7 +43908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="510" spans="1:13">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>4104</v>
       </c>
@@ -43908,7 +43946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="511" spans="1:13">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>4111</v>
       </c>
@@ -43946,7 +43984,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="512" spans="1:13">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>4118</v>
       </c>
@@ -43984,7 +44022,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="513" spans="1:13">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>4127</v>
       </c>
@@ -44022,7 +44060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="514" spans="1:13">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>4136</v>
       </c>
@@ -44063,7 +44101,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="515" spans="1:13">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>4144</v>
       </c>
@@ -44101,7 +44139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:13">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>4153</v>
       </c>
@@ -44139,7 +44177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="517" spans="1:13">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>4160</v>
       </c>
@@ -44177,7 +44215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="518" spans="1:13">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>4169</v>
       </c>
@@ -44215,7 +44253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="519" spans="1:13">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>4176</v>
       </c>
@@ -44256,7 +44294,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="520" spans="1:13">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>4183</v>
       </c>
@@ -44294,7 +44332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="521" spans="1:13">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>4190</v>
       </c>
@@ -44332,7 +44370,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="522" spans="1:13">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>4199</v>
       </c>
@@ -44370,7 +44408,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="523" spans="1:13">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>4206</v>
       </c>
@@ -44408,7 +44446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:13">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>4215</v>
       </c>
@@ -44446,7 +44484,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="525" spans="1:13">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>4223</v>
       </c>
@@ -44484,7 +44522,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="526" spans="1:13">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>4232</v>
       </c>
@@ -44522,7 +44560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="527" spans="1:13">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>4241</v>
       </c>
@@ -44560,7 +44598,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="528" spans="1:13">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>4248</v>
       </c>
@@ -44598,7 +44636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:13">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>4255</v>
       </c>
@@ -44636,7 +44674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:13">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>4263</v>
       </c>
@@ -44674,7 +44712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="531" spans="1:13">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>4270</v>
       </c>
@@ -44712,7 +44750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="532" spans="1:13">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>4278</v>
       </c>
@@ -44750,7 +44788,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="533" spans="1:13">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>4287</v>
       </c>
@@ -44788,7 +44826,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="534" spans="1:13">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>4296</v>
       </c>
@@ -44826,7 +44864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="535" spans="1:13">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>4303</v>
       </c>
@@ -44864,7 +44902,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="536" spans="1:13">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>4310</v>
       </c>
@@ -44902,7 +44940,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="537" spans="1:13">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>4317</v>
       </c>
@@ -44940,7 +44978,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="538" spans="1:13">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>4324</v>
       </c>
@@ -44978,7 +45016,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="539" spans="1:13">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>4331</v>
       </c>
@@ -45016,7 +45054,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="540" spans="1:13">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>4338</v>
       </c>
@@ -45054,7 +45092,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="541" spans="1:13">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>4347</v>
       </c>
@@ -45092,7 +45130,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="542" spans="1:13">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>4353</v>
       </c>
@@ -45130,7 +45168,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="543" spans="1:13">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>4360</v>
       </c>
@@ -45168,7 +45206,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="544" spans="1:13">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>4369</v>
       </c>
@@ -45206,7 +45244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="545" spans="1:13">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>4375</v>
       </c>
@@ -45244,7 +45282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="546" spans="1:13">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>4384</v>
       </c>
@@ -45282,7 +45320,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="547" spans="1:13">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>4391</v>
       </c>
@@ -45320,7 +45358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="548" spans="1:13">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>4400</v>
       </c>
@@ -45358,7 +45396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="549" spans="1:13">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>4407</v>
       </c>
@@ -45396,7 +45434,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="550" spans="1:13">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>4415</v>
       </c>
@@ -45434,7 +45472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:13">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>4424</v>
       </c>
@@ -45472,7 +45510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="552" spans="1:13">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>4433</v>
       </c>
@@ -45510,7 +45548,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="553" spans="1:13">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>4440</v>
       </c>
@@ -45548,7 +45586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:13">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>4447</v>
       </c>
@@ -45586,7 +45624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="555" spans="1:13">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>4454</v>
       </c>
@@ -45624,7 +45662,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="556" spans="1:13">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>4461</v>
       </c>
@@ -45662,7 +45700,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="557" spans="1:13">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>4468</v>
       </c>
@@ -45700,7 +45738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:13">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>4476</v>
       </c>
@@ -45738,7 +45776,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="559" spans="1:13">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>4483</v>
       </c>
@@ -45776,7 +45814,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="560" spans="1:13">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>4490</v>
       </c>
@@ -45814,7 +45852,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="561" spans="1:13">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>4497</v>
       </c>
@@ -45852,7 +45890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="562" spans="1:13">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>4506</v>
       </c>
@@ -45893,7 +45931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="563" spans="1:13">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>4513</v>
       </c>
@@ -45931,7 +45969,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="564" spans="1:13">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>4520</v>
       </c>
@@ -45969,7 +46007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="565" spans="1:13">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>4528</v>
       </c>
@@ -46007,7 +46045,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="566" spans="1:13">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>4537</v>
       </c>
@@ -46045,7 +46083,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="567" spans="1:13">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>4544</v>
       </c>
@@ -46083,7 +46121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="568" spans="1:13">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>4553</v>
       </c>
@@ -46124,7 +46162,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="569" spans="1:13">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>4560</v>
       </c>
@@ -46162,7 +46200,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="570" spans="1:13">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>4569</v>
       </c>
@@ -46200,7 +46238,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="571" spans="1:13">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>4578</v>
       </c>
@@ -46238,7 +46276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:13">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>4587</v>
       </c>
@@ -46276,7 +46314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:13">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>4594</v>
       </c>
@@ -46314,7 +46352,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="574" spans="1:13">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>4603</v>
       </c>
@@ -46352,7 +46390,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="575" spans="1:13">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>4610</v>
       </c>
@@ -46390,7 +46428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="576" spans="1:13">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>4617</v>
       </c>
@@ -46428,7 +46466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:13">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>4623</v>
       </c>
@@ -46466,7 +46504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:13">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>4630</v>
       </c>
@@ -46504,7 +46542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="579" spans="1:13">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>4637</v>
       </c>
@@ -46542,7 +46580,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="580" spans="1:13">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>4645</v>
       </c>
@@ -46580,7 +46618,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="581" spans="1:13">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>4654</v>
       </c>
@@ -46618,7 +46656,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="582" spans="1:13">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>4663</v>
       </c>
@@ -46656,7 +46694,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="583" spans="1:13">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>4670</v>
       </c>
@@ -46694,7 +46732,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="584" spans="1:13">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>4679</v>
       </c>
@@ -46732,7 +46770,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="585" spans="1:13">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>4686</v>
       </c>
@@ -46770,7 +46808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:13">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>4693</v>
       </c>
@@ -46808,7 +46846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="587" spans="1:13">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>4700</v>
       </c>
@@ -46846,7 +46884,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="588" spans="1:13">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>4707</v>
       </c>
@@ -46884,7 +46922,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="589" spans="1:13">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>4715</v>
       </c>
@@ -46922,7 +46960,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="590" spans="1:13">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>4723</v>
       </c>
@@ -46960,7 +46998,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="591" spans="1:13">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>4730</v>
       </c>
@@ -46998,7 +47036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="592" spans="1:13">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>4739</v>
       </c>
@@ -47036,7 +47074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="593" spans="1:13">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>4746</v>
       </c>
@@ -47074,7 +47112,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="594" spans="1:13">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>4754</v>
       </c>
@@ -47112,7 +47150,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="595" spans="1:13">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>4760</v>
       </c>
@@ -47150,7 +47188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="596" spans="1:13">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>4769</v>
       </c>
@@ -47188,7 +47226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="597" spans="1:13">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>4776</v>
       </c>
@@ -47226,7 +47264,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="598" spans="1:13">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>4783</v>
       </c>
@@ -47264,7 +47302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="599" spans="1:13">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>4790</v>
       </c>
@@ -47302,7 +47340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="600" spans="1:13">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>4799</v>
       </c>
@@ -47340,7 +47378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="601" spans="1:13">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>4806</v>
       </c>
@@ -47381,7 +47419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="602" spans="1:13">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>4815</v>
       </c>
@@ -47419,7 +47457,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="603" spans="1:13">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>4824</v>
       </c>
@@ -47457,7 +47495,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="604" spans="1:13">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>4831</v>
       </c>
@@ -47495,7 +47533,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="605" spans="1:13">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>4840</v>
       </c>
@@ -47533,7 +47571,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="606" spans="1:13">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>4847</v>
       </c>
@@ -47571,7 +47609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="607" spans="1:13">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>4854</v>
       </c>
@@ -47609,7 +47647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="608" spans="1:13">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>4863</v>
       </c>
@@ -47647,7 +47685,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="609" spans="1:13">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>4870</v>
       </c>
@@ -47685,7 +47723,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="610" spans="1:13">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>4877</v>
       </c>
@@ -47723,7 +47761,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="611" spans="1:13">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>4886</v>
       </c>
@@ -47761,7 +47799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="612" spans="1:13">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>4895</v>
       </c>
@@ -47799,7 +47837,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="613" spans="1:13">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>4902</v>
       </c>
@@ -47837,7 +47875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="614" spans="1:13">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>4909</v>
       </c>
@@ -47875,7 +47913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:13">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>4916</v>
       </c>
@@ -47913,7 +47951,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="616" spans="1:13">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>4923</v>
       </c>
@@ -47951,7 +47989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="617" spans="1:13">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>4932</v>
       </c>
@@ -47989,7 +48027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="618" spans="1:13">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>4939</v>
       </c>
@@ -48030,7 +48068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="619" spans="1:13">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>4948</v>
       </c>
@@ -48068,7 +48106,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="620" spans="1:13">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>4955</v>
       </c>
@@ -48106,7 +48144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="621" spans="1:13">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>4962</v>
       </c>
@@ -48144,7 +48182,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="622" spans="1:13">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>4969</v>
       </c>
@@ -48182,7 +48220,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="623" spans="1:13">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>4978</v>
       </c>
@@ -48220,7 +48258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:13">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>4985</v>
       </c>
@@ -48258,7 +48296,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="625" spans="1:13">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>4992</v>
       </c>
@@ -48296,7 +48334,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="626" spans="1:13">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>5001</v>
       </c>
@@ -48334,7 +48372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:13">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>5010</v>
       </c>
@@ -48372,7 +48410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="628" spans="1:13">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>5017</v>
       </c>
@@ -48410,7 +48448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="629" spans="1:13">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>5025</v>
       </c>
@@ -48448,7 +48486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="630" spans="1:13">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>5034</v>
       </c>
@@ -48486,7 +48524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="631" spans="1:13">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>5043</v>
       </c>
@@ -48524,7 +48562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="632" spans="1:13">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>5050</v>
       </c>
@@ -48562,7 +48600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="633" spans="1:13">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>5059</v>
       </c>
@@ -48600,7 +48638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="634" spans="1:13">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>5068</v>
       </c>
@@ -48638,7 +48676,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="635" spans="1:13">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>5075</v>
       </c>
@@ -48676,7 +48714,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="636" spans="1:13">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>5082</v>
       </c>
@@ -48714,7 +48752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="637" spans="1:13">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>5089</v>
       </c>
@@ -48752,7 +48790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="638" spans="1:13">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>5096</v>
       </c>
@@ -48790,7 +48828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:13">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>5103</v>
       </c>
@@ -48828,7 +48866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="640" spans="1:13">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>5110</v>
       </c>
@@ -48866,7 +48904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:13">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>5119</v>
       </c>
@@ -48904,7 +48942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="642" spans="1:13">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>5126</v>
       </c>
@@ -48942,7 +48980,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="643" spans="1:13">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>5133</v>
       </c>
@@ -48980,7 +49018,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="644" spans="1:13">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>5141</v>
       </c>
@@ -49018,7 +49056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="645" spans="1:13">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>5148</v>
       </c>
@@ -49056,7 +49094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="646" spans="1:13">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>5157</v>
       </c>
@@ -49094,7 +49132,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="647" spans="1:13">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>5166</v>
       </c>
@@ -49132,7 +49170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="648" spans="1:13">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>5173</v>
       </c>
@@ -49170,7 +49208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="649" spans="1:13">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>5180</v>
       </c>
@@ -49208,7 +49246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="650" spans="1:13">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>5189</v>
       </c>
@@ -49246,7 +49284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="651" spans="1:13">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>5196</v>
       </c>
@@ -49284,7 +49322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="652" spans="1:13">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>5205</v>
       </c>
@@ -49322,7 +49360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="653" spans="1:13">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>5214</v>
       </c>
@@ -49360,7 +49398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="654" spans="1:13">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>5221</v>
       </c>
@@ -49398,7 +49436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="655" spans="1:13">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>5228</v>
       </c>
@@ -49436,7 +49474,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="656" spans="1:13">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>5235</v>
       </c>
@@ -49474,7 +49512,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="657" spans="1:13">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>5242</v>
       </c>
@@ -49512,7 +49550,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="658" spans="1:13">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>5251</v>
       </c>
@@ -49550,7 +49588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:13">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>5260</v>
       </c>
@@ -49588,7 +49626,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="660" spans="1:13">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>5269</v>
       </c>
@@ -49626,7 +49664,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="661" spans="1:13">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>5277</v>
       </c>
@@ -49664,7 +49702,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="662" spans="1:13">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>5284</v>
       </c>
@@ -49702,7 +49740,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="663" spans="1:13">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>5291</v>
       </c>
@@ -49740,7 +49778,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="664" spans="1:13">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>5299</v>
       </c>
@@ -49778,7 +49816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="665" spans="1:13">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>5306</v>
       </c>
@@ -49816,7 +49854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="666" spans="1:13">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>5314</v>
       </c>
@@ -49854,7 +49892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="667" spans="1:13">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>5321</v>
       </c>
@@ -49892,7 +49930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:13">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>5330</v>
       </c>
@@ -49930,7 +49968,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="669" spans="1:13">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>5338</v>
       </c>
@@ -49968,7 +50006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="670" spans="1:13">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>5345</v>
       </c>
@@ -50006,7 +50044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="671" spans="1:13">
+    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>5354</v>
       </c>
@@ -50044,7 +50082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="672" spans="1:13">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>5361</v>
       </c>
@@ -50082,7 +50120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="673" spans="1:13">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>5369</v>
       </c>
@@ -50120,7 +50158,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="674" spans="1:13">
+    <row r="674" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>5378</v>
       </c>
@@ -50158,7 +50196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="675" spans="1:13">
+    <row r="675" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>5387</v>
       </c>
@@ -50199,7 +50237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:13">
+    <row r="676" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>5395</v>
       </c>
@@ -50237,7 +50275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:13">
+    <row r="677" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>5404</v>
       </c>
@@ -50275,7 +50313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="678" spans="1:13">
+    <row r="678" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>5411</v>
       </c>
@@ -50313,7 +50351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:13">
+    <row r="679" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>5420</v>
       </c>
@@ -50351,7 +50389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="680" spans="1:13">
+    <row r="680" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>5428</v>
       </c>
@@ -50389,7 +50427,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="681" spans="1:13">
+    <row r="681" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>5435</v>
       </c>
@@ -50427,7 +50465,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="682" spans="1:13">
+    <row r="682" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>5444</v>
       </c>
@@ -50465,7 +50503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="683" spans="1:13">
+    <row r="683" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>5450</v>
       </c>
@@ -50503,7 +50541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="684" spans="1:13">
+    <row r="684" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>5459</v>
       </c>
@@ -50541,7 +50579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:13">
+    <row r="685" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>5466</v>
       </c>
@@ -50579,7 +50617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:13">
+    <row r="686" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>5473</v>
       </c>
@@ -50617,7 +50655,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="687" spans="1:13">
+    <row r="687" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>5482</v>
       </c>
@@ -50655,7 +50693,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="688" spans="1:13">
+    <row r="688" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>5489</v>
       </c>
@@ -50693,7 +50731,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="689" spans="1:13">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>5498</v>
       </c>
@@ -50731,7 +50769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="690" spans="1:13">
+    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>5506</v>
       </c>
@@ -50769,7 +50807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="691" spans="1:13">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>5515</v>
       </c>
@@ -50810,7 +50848,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="692" spans="1:13">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>5521</v>
       </c>
@@ -50848,7 +50886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="693" spans="1:13">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>5528</v>
       </c>
@@ -50886,7 +50924,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="694" spans="1:13">
+    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>5534</v>
       </c>
@@ -50924,7 +50962,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="695" spans="1:13">
+    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>5543</v>
       </c>
@@ -50962,7 +51000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="696" spans="1:13">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>5551</v>
       </c>
@@ -51000,7 +51038,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="697" spans="1:13">
+    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>5558</v>
       </c>
@@ -51038,7 +51076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="698" spans="1:13">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>5567</v>
       </c>
@@ -51076,7 +51114,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="699" spans="1:13">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>5574</v>
       </c>
@@ -51114,7 +51152,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="700" spans="1:13">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>5583</v>
       </c>
@@ -51155,7 +51193,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="701" spans="1:13">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>5590</v>
       </c>
@@ -51193,7 +51231,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="702" spans="1:13">
+    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>5598</v>
       </c>
@@ -51231,7 +51269,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="703" spans="1:13">
+    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>5606</v>
       </c>
@@ -51269,7 +51307,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="704" spans="1:13">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>5613</v>
       </c>
@@ -51307,7 +51345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:13">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>5621</v>
       </c>
@@ -51345,7 +51383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:13">
+    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>5628</v>
       </c>
@@ -51383,7 +51421,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="707" spans="1:13">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>5636</v>
       </c>
@@ -51421,7 +51459,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="708" spans="1:13">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>5645</v>
       </c>
@@ -51459,7 +51497,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="709" spans="1:13">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>5653</v>
       </c>
@@ -51497,7 +51535,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="710" spans="1:13">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>5662</v>
       </c>
@@ -51535,7 +51573,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="711" spans="1:13">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>5671</v>
       </c>
@@ -51573,7 +51611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:13">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>5678</v>
       </c>
@@ -51611,7 +51649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:13">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>5686</v>
       </c>
@@ -51649,7 +51687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="714" spans="1:13">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>5695</v>
       </c>
@@ -51687,7 +51725,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="715" spans="1:13">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>5702</v>
       </c>
@@ -51725,7 +51763,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="716" spans="1:13">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>5711</v>
       </c>
@@ -51763,7 +51801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="717" spans="1:13">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>5718</v>
       </c>
@@ -51801,7 +51839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="718" spans="1:13">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>5727</v>
       </c>
@@ -51839,7 +51877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="719" spans="1:13">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>5734</v>
       </c>
@@ -51877,7 +51915,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="720" spans="1:13">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>5741</v>
       </c>
@@ -51915,7 +51953,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="721" spans="1:13">
+    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>5749</v>
       </c>
@@ -51953,7 +51991,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="722" spans="1:13">
+    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>5757</v>
       </c>
@@ -51991,7 +52029,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="723" spans="1:13">
+    <row r="723" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>5764</v>
       </c>
@@ -52029,7 +52067,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="724" spans="1:13">
+    <row r="724" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>5771</v>
       </c>
@@ -52067,7 +52105,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="725" spans="1:13">
+    <row r="725" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>5779</v>
       </c>
@@ -52105,7 +52143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="726" spans="1:13">
+    <row r="726" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>5787</v>
       </c>
@@ -52143,7 +52181,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="727" spans="1:13">
+    <row r="727" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>5793</v>
       </c>
@@ -52181,7 +52219,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="728" spans="1:13">
+    <row r="728" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>5800</v>
       </c>
@@ -52219,7 +52257,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="729" spans="1:13">
+    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>5809</v>
       </c>
@@ -52257,7 +52295,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="730" spans="1:13">
+    <row r="730" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>5816</v>
       </c>
@@ -52295,7 +52333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="731" spans="1:13">
+    <row r="731" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>5825</v>
       </c>
@@ -52333,7 +52371,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="732" spans="1:13">
+    <row r="732" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>5832</v>
       </c>
@@ -52371,7 +52409,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="733" spans="1:13">
+    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>5839</v>
       </c>
@@ -52409,7 +52447,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="734" spans="1:13">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>5848</v>
       </c>
@@ -52447,7 +52485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:13">
+    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>5855</v>
       </c>
@@ -52485,7 +52523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:13">
+    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>5864</v>
       </c>
@@ -52526,7 +52564,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="737" spans="1:13">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>5871</v>
       </c>
@@ -52564,7 +52602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="738" spans="1:13">
+    <row r="738" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>5880</v>
       </c>
@@ -52602,7 +52640,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="739" spans="1:13">
+    <row r="739" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>5889</v>
       </c>
@@ -52640,7 +52678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="740" spans="1:13">
+    <row r="740" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>5898</v>
       </c>
@@ -52678,7 +52716,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="741" spans="1:13">
+    <row r="741" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>5906</v>
       </c>
@@ -52716,7 +52754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="742" spans="1:13">
+    <row r="742" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>5913</v>
       </c>
@@ -52754,7 +52792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:13">
+    <row r="743" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>5920</v>
       </c>
@@ -52792,7 +52830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:13">
+    <row r="744" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>5929</v>
       </c>
@@ -52830,7 +52868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="745" spans="1:13">
+    <row r="745" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>5937</v>
       </c>
@@ -52868,7 +52906,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="746" spans="1:13">
+    <row r="746" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>5944</v>
       </c>
@@ -52906,7 +52944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="747" spans="1:13">
+    <row r="747" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>5953</v>
       </c>
@@ -52944,7 +52982,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="748" spans="1:13">
+    <row r="748" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>5961</v>
       </c>
@@ -52982,7 +53020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="749" spans="1:13">
+    <row r="749" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>5968</v>
       </c>
@@ -53020,7 +53058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="750" spans="1:13">
+    <row r="750" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>5975</v>
       </c>
@@ -53058,7 +53096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="751" spans="1:13">
+    <row r="751" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>5984</v>
       </c>
@@ -53096,7 +53134,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="752" spans="1:13">
+    <row r="752" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>5993</v>
       </c>
@@ -53134,7 +53172,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="753" spans="1:13">
+    <row r="753" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>6002</v>
       </c>
@@ -53172,7 +53210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="754" spans="1:13">
+    <row r="754" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>6011</v>
       </c>
@@ -53210,7 +53248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="755" spans="1:13">
+    <row r="755" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>6020</v>
       </c>
@@ -53248,7 +53286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="756" spans="1:13">
+    <row r="756" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>6028</v>
       </c>
@@ -53286,7 +53324,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="757" spans="1:13">
+    <row r="757" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>6035</v>
       </c>
@@ -53324,7 +53362,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="758" spans="1:13">
+    <row r="758" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>6042</v>
       </c>
@@ -53362,7 +53400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="759" spans="1:13">
+    <row r="759" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>6051</v>
       </c>
@@ -53400,7 +53438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="760" spans="1:13">
+    <row r="760" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>6058</v>
       </c>
@@ -53438,7 +53476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:13">
+    <row r="761" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>6067</v>
       </c>
@@ -53476,7 +53514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="762" spans="1:13">
+    <row r="762" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>6075</v>
       </c>
@@ -53514,7 +53552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="763" spans="1:13">
+    <row r="763" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>6082</v>
       </c>
@@ -53552,7 +53590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="764" spans="1:13">
+    <row r="764" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>6091</v>
       </c>
@@ -53590,7 +53628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="765" spans="1:13">
+    <row r="765" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>6100</v>
       </c>
@@ -53628,7 +53666,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="766" spans="1:13">
+    <row r="766" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>6107</v>
       </c>
@@ -53666,7 +53704,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="767" spans="1:13">
+    <row r="767" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>6116</v>
       </c>
@@ -53704,7 +53742,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="768" spans="1:13">
+    <row r="768" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>6123</v>
       </c>
@@ -53742,7 +53780,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="769" spans="1:13">
+    <row r="769" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>6131</v>
       </c>
@@ -53780,7 +53818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="770" spans="1:13">
+    <row r="770" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>6139</v>
       </c>
@@ -53818,7 +53856,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="771" spans="1:13">
+    <row r="771" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>6146</v>
       </c>
@@ -53856,7 +53894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="772" spans="1:13">
+    <row r="772" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>6155</v>
       </c>
@@ -53894,7 +53932,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="773" spans="1:13">
+    <row r="773" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>6162</v>
       </c>
@@ -53932,7 +53970,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="774" spans="1:13">
+    <row r="774" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>6171</v>
       </c>
@@ -53970,7 +54008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="775" spans="1:13">
+    <row r="775" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>6180</v>
       </c>
@@ -54008,7 +54046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="776" spans="1:13">
+    <row r="776" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>6187</v>
       </c>
@@ -54046,7 +54084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="777" spans="1:13">
+    <row r="777" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>6194</v>
       </c>
@@ -54084,7 +54122,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="778" spans="1:13">
+    <row r="778" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>6203</v>
       </c>
@@ -54122,7 +54160,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="779" spans="1:13">
+    <row r="779" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>6211</v>
       </c>
@@ -54160,7 +54198,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="780" spans="1:13">
+    <row r="780" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>6218</v>
       </c>
@@ -54198,7 +54236,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="781" spans="1:13">
+    <row r="781" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>6227</v>
       </c>
@@ -54236,7 +54274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="782" spans="1:13">
+    <row r="782" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>6234</v>
       </c>
@@ -54274,7 +54312,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="783" spans="1:13">
+    <row r="783" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>6243</v>
       </c>
@@ -54312,7 +54350,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="784" spans="1:13">
+    <row r="784" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>6252</v>
       </c>
@@ -54350,7 +54388,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="785" spans="1:13">
+    <row r="785" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>6261</v>
       </c>
@@ -54388,7 +54426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:13">
+    <row r="786" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>6269</v>
       </c>
@@ -54426,7 +54464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="787" spans="1:13">
+    <row r="787" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>6276</v>
       </c>
@@ -54464,7 +54502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="788" spans="1:13">
+    <row r="788" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>6285</v>
       </c>
@@ -54502,7 +54540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="789" spans="1:13">
+    <row r="789" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>6294</v>
       </c>
@@ -54540,7 +54578,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="790" spans="1:13">
+    <row r="790" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>6303</v>
       </c>
@@ -54578,7 +54616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="791" spans="1:13">
+    <row r="791" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>6312</v>
       </c>
@@ -54616,7 +54654,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="792" spans="1:13">
+    <row r="792" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>6319</v>
       </c>
@@ -54654,7 +54692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="793" spans="1:13">
+    <row r="793" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>6328</v>
       </c>
@@ -54692,7 +54730,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="794" spans="1:13">
+    <row r="794" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>6336</v>
       </c>
@@ -54730,7 +54768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="795" spans="1:13">
+    <row r="795" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>6343</v>
       </c>
@@ -54768,7 +54806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="796" spans="1:13">
+    <row r="796" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>6350</v>
       </c>
@@ -54806,7 +54844,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="797" spans="1:13">
+    <row r="797" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>6359</v>
       </c>
@@ -54844,7 +54882,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="798" spans="1:13">
+    <row r="798" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>6366</v>
       </c>
@@ -54882,7 +54920,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="799" spans="1:13">
+    <row r="799" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>6373</v>
       </c>
@@ -54920,7 +54958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="800" spans="1:13">
+    <row r="800" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>6382</v>
       </c>
@@ -54958,7 +54996,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="801" spans="1:13">
+    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>6390</v>
       </c>
@@ -54996,7 +55034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="802" spans="1:13">
+    <row r="802" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>6397</v>
       </c>
@@ -55034,7 +55072,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="803" spans="1:13">
+    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>6404</v>
       </c>
@@ -55072,7 +55110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="804" spans="1:13">
+    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>6412</v>
       </c>
@@ -55110,7 +55148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="805" spans="1:13">
+    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>6418</v>
       </c>
@@ -55148,7 +55186,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="806" spans="1:13">
+    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>6427</v>
       </c>
@@ -55186,7 +55224,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="807" spans="1:13">
+    <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>6435</v>
       </c>
@@ -55224,7 +55262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="808" spans="1:13">
+    <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>6442</v>
       </c>
@@ -55262,7 +55300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="809" spans="1:13">
+    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>6451</v>
       </c>
@@ -55300,7 +55338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="810" spans="1:13">
+    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>6460</v>
       </c>
@@ -55338,7 +55376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="811" spans="1:13">
+    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>6467</v>
       </c>
@@ -55376,7 +55414,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="812" spans="1:13">
+    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>6476</v>
       </c>
@@ -55414,7 +55452,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="813" spans="1:13">
+    <row r="813" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>6483</v>
       </c>
@@ -55452,7 +55490,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="814" spans="1:13">
+    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>6492</v>
       </c>
@@ -55490,7 +55528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="815" spans="1:13">
+    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>6500</v>
       </c>
@@ -55528,7 +55566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="816" spans="1:13">
+    <row r="816" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>6508</v>
       </c>
@@ -55566,7 +55604,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="817" spans="1:13">
+    <row r="817" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>6515</v>
       </c>
@@ -55604,7 +55642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:13">
+    <row r="818" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>6522</v>
       </c>
@@ -55642,7 +55680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:13">
+    <row r="819" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>6530</v>
       </c>
@@ -55680,7 +55718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:13">
+    <row r="820" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>6537</v>
       </c>
@@ -55718,7 +55756,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="821" spans="1:13">
+    <row r="821" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>6544</v>
       </c>
@@ -55756,7 +55794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="822" spans="1:13">
+    <row r="822" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>6551</v>
       </c>
@@ -55794,7 +55832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="823" spans="1:13">
+    <row r="823" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>6559</v>
       </c>
@@ -55832,7 +55870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="824" spans="1:13">
+    <row r="824" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>6566</v>
       </c>
@@ -55870,7 +55908,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="825" spans="1:13">
+    <row r="825" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>6573</v>
       </c>
@@ -55908,7 +55946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="826" spans="1:13">
+    <row r="826" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>6581</v>
       </c>
@@ -55946,7 +55984,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="827" spans="1:13">
+    <row r="827" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>6588</v>
       </c>
@@ -55984,7 +56022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="828" spans="1:13">
+    <row r="828" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>6596</v>
       </c>
@@ -56022,7 +56060,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="829" spans="1:13">
+    <row r="829" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>6603</v>
       </c>
@@ -56060,7 +56098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="830" spans="1:13">
+    <row r="830" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>6609</v>
       </c>
@@ -56098,7 +56136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="831" spans="1:13">
+    <row r="831" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>6616</v>
       </c>
@@ -56136,7 +56174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:13">
+    <row r="832" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>6623</v>
       </c>
@@ -56174,7 +56212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="833" spans="1:13">
+    <row r="833" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>6630</v>
       </c>
@@ -56212,7 +56250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="834" spans="1:13">
+    <row r="834" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>6638</v>
       </c>
@@ -56250,7 +56288,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="835" spans="1:13">
+    <row r="835" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>6645</v>
       </c>
@@ -56288,7 +56326,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="836" spans="1:13">
+    <row r="836" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>6653</v>
       </c>
@@ -56326,7 +56364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="837" spans="1:13">
+    <row r="837" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>6660</v>
       </c>
@@ -56364,7 +56402,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="838" spans="1:13">
+    <row r="838" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>6666</v>
       </c>
@@ -56402,7 +56440,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="839" spans="1:13">
+    <row r="839" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>6673</v>
       </c>
@@ -56440,7 +56478,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="840" spans="1:13">
+    <row r="840" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>6680</v>
       </c>
@@ -56478,7 +56516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="841" spans="1:13">
+    <row r="841" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>6688</v>
       </c>
@@ -56516,7 +56554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="842" spans="1:13">
+    <row r="842" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>6696</v>
       </c>
@@ -56554,7 +56592,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="843" spans="1:13">
+    <row r="843" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>6703</v>
       </c>
@@ -56592,7 +56630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="844" spans="1:13">
+    <row r="844" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>6710</v>
       </c>
@@ -56630,7 +56668,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="845" spans="1:13">
+    <row r="845" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>6716</v>
       </c>
@@ -56668,7 +56706,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="846" spans="1:13">
+    <row r="846" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>6723</v>
       </c>
@@ -56706,7 +56744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="847" spans="1:13">
+    <row r="847" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>6731</v>
       </c>
@@ -56744,7 +56782,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="848" spans="1:13">
+    <row r="848" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>6738</v>
       </c>
@@ -56782,7 +56820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="849" spans="1:13">
+    <row r="849" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>6745</v>
       </c>
@@ -56820,7 +56858,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="850" spans="1:13">
+    <row r="850" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>6753</v>
       </c>
@@ -56858,7 +56896,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="851" spans="1:13">
+    <row r="851" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>6761</v>
       </c>
@@ -56896,7 +56934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="852" spans="1:13">
+    <row r="852" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>6768</v>
       </c>
@@ -56934,7 +56972,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="853" spans="1:13">
+    <row r="853" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>6775</v>
       </c>
@@ -56972,7 +57010,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="854" spans="1:13">
+    <row r="854" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>6781</v>
       </c>
@@ -57010,7 +57048,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="855" spans="1:13">
+    <row r="855" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>6789</v>
       </c>
@@ -57048,7 +57086,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="856" spans="1:13">
+    <row r="856" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>6797</v>
       </c>
@@ -57086,7 +57124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="857" spans="1:13">
+    <row r="857" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>6805</v>
       </c>
@@ -57124,7 +57162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="858" spans="1:13">
+    <row r="858" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>6813</v>
       </c>
@@ -57162,7 +57200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="859" spans="1:13">
+    <row r="859" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>6821</v>
       </c>
@@ -57200,7 +57238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:13">
+    <row r="860" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>6828</v>
       </c>
@@ -57238,7 +57276,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="861" spans="1:13">
+    <row r="861" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>6836</v>
       </c>
@@ -57276,7 +57314,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="862" spans="1:13">
+    <row r="862" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>6842</v>
       </c>
@@ -57314,7 +57352,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="863" spans="1:13">
+    <row r="863" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>6850</v>
       </c>
@@ -57352,7 +57390,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="864" spans="1:13">
+    <row r="864" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>6857</v>
       </c>
@@ -57390,7 +57428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="865" spans="1:13">
+    <row r="865" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>6865</v>
       </c>
@@ -57428,7 +57466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:13">
+    <row r="866" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>6871</v>
       </c>
@@ -57466,7 +57504,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="867" spans="1:13">
+    <row r="867" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>6879</v>
       </c>
@@ -57504,7 +57542,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="868" spans="1:13">
+    <row r="868" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>6887</v>
       </c>
@@ -57542,7 +57580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" spans="1:13">
+    <row r="869" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>6894</v>
       </c>
@@ -57580,7 +57618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:13">
+    <row r="870" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>6901</v>
       </c>
@@ -57618,7 +57656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="871" spans="1:13">
+    <row r="871" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>6908</v>
       </c>
@@ -57656,7 +57694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="872" spans="1:13">
+    <row r="872" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>6916</v>
       </c>
@@ -57694,7 +57732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="873" spans="1:13">
+    <row r="873" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>6923</v>
       </c>
@@ -57732,7 +57770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="874" spans="1:13">
+    <row r="874" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>6931</v>
       </c>
@@ -57770,7 +57808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="875" spans="1:13">
+    <row r="875" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>6938</v>
       </c>
@@ -57808,7 +57846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="876" spans="1:13">
+    <row r="876" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>6945</v>
       </c>
@@ -57846,7 +57884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="877" spans="1:13">
+    <row r="877" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>6952</v>
       </c>
@@ -57884,7 +57922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:13">
+    <row r="878" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>6959</v>
       </c>
@@ -57922,7 +57960,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="879" spans="1:13">
+    <row r="879" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>6967</v>
       </c>
@@ -57960,7 +57998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:13">
+    <row r="880" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>6975</v>
       </c>
@@ -57998,7 +58036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:13">
+    <row r="881" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>6983</v>
       </c>
@@ -58036,7 +58074,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="882" spans="1:13">
+    <row r="882" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>6990</v>
       </c>
@@ -58074,7 +58112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="883" spans="1:13">
+    <row r="883" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>6997</v>
       </c>
@@ -58112,7 +58150,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="884" spans="1:13">
+    <row r="884" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>7004</v>
       </c>
@@ -58150,7 +58188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="885" spans="1:13">
+    <row r="885" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>7011</v>
       </c>
@@ -58188,7 +58226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="886" spans="1:13">
+    <row r="886" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>7018</v>
       </c>
@@ -58226,7 +58264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="887" spans="1:13">
+    <row r="887" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>7025</v>
       </c>
@@ -58264,7 +58302,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="888" spans="1:13">
+    <row r="888" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>7033</v>
       </c>
@@ -58302,7 +58340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="889" spans="1:13">
+    <row r="889" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>7040</v>
       </c>
@@ -58340,7 +58378,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="890" spans="1:13">
+    <row r="890" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>7047</v>
       </c>
@@ -58378,7 +58416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:13">
+    <row r="891" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>7055</v>
       </c>
@@ -58416,7 +58454,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="892" spans="1:13">
+    <row r="892" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>7062</v>
       </c>
@@ -58454,7 +58492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="893" spans="1:13">
+    <row r="893" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>7069</v>
       </c>
@@ -58492,7 +58530,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="894" spans="1:13">
+    <row r="894" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>7077</v>
       </c>
@@ -58530,7 +58568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="895" spans="1:13">
+    <row r="895" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>7083</v>
       </c>
@@ -58568,7 +58606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="896" spans="1:13">
+    <row r="896" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>7090</v>
       </c>
@@ -58606,7 +58644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="897" spans="1:13">
+    <row r="897" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>7098</v>
       </c>
@@ -58644,7 +58682,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="898" spans="1:13">
+    <row r="898" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>7105</v>
       </c>
@@ -58682,7 +58720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="899" spans="1:13">
+    <row r="899" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>7112</v>
       </c>
@@ -58720,7 +58758,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="900" spans="1:13">
+    <row r="900" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>7120</v>
       </c>
@@ -58758,7 +58796,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="901" spans="1:13">
+    <row r="901" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>7128</v>
       </c>
@@ -58796,7 +58834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="902" spans="1:13">
+    <row r="902" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>7136</v>
       </c>
@@ -58834,7 +58872,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="903" spans="1:13">
+    <row r="903" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>7143</v>
       </c>
@@ -58872,7 +58910,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="904" spans="1:13">
+    <row r="904" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>7150</v>
       </c>
@@ -58910,7 +58948,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="905" spans="1:13">
+    <row r="905" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>7157</v>
       </c>
@@ -58948,7 +58986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="906" spans="1:13">
+    <row r="906" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>7164</v>
       </c>
@@ -58986,7 +59024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="907" spans="1:13">
+    <row r="907" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>7171</v>
       </c>
@@ -59024,7 +59062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="908" spans="1:13">
+    <row r="908" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>7179</v>
       </c>
@@ -59062,7 +59100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:13">
+    <row r="909" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>7187</v>
       </c>
@@ -59100,7 +59138,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="910" spans="1:13">
+    <row r="910" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>7194</v>
       </c>
@@ -59138,7 +59176,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="911" spans="1:13">
+    <row r="911" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>7202</v>
       </c>
@@ -59176,7 +59214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="912" spans="1:13">
+    <row r="912" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>7209</v>
       </c>
@@ -59214,7 +59252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="913" spans="1:13">
+    <row r="913" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>7216</v>
       </c>
@@ -59252,7 +59290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="914" spans="1:13">
+    <row r="914" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>7223</v>
       </c>
@@ -59290,7 +59328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="915" spans="1:13">
+    <row r="915" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>7231</v>
       </c>
@@ -59328,7 +59366,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="916" spans="1:13">
+    <row r="916" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>7238</v>
       </c>
@@ -59366,7 +59404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="917" spans="1:13">
+    <row r="917" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>7245</v>
       </c>
@@ -59404,7 +59442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="918" spans="1:13">
+    <row r="918" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>7251</v>
       </c>
@@ -59442,7 +59480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="919" spans="1:13">
+    <row r="919" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>7259</v>
       </c>
@@ -59480,7 +59518,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="920" spans="1:13">
+    <row r="920" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>7266</v>
       </c>
@@ -59518,7 +59556,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="921" spans="1:13">
+    <row r="921" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>7273</v>
       </c>
@@ -59556,7 +59594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="922" spans="1:13">
+    <row r="922" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>7280</v>
       </c>
@@ -59594,7 +59632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="923" spans="1:13">
+    <row r="923" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>7287</v>
       </c>
@@ -59632,7 +59670,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="924" spans="1:13">
+    <row r="924" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>7295</v>
       </c>
@@ -59670,7 +59708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="925" spans="1:13">
+    <row r="925" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>7302</v>
       </c>
@@ -59708,7 +59746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="926" spans="1:13">
+    <row r="926" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>7310</v>
       </c>
@@ -59746,7 +59784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:13">
+    <row r="927" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>7317</v>
       </c>
@@ -59784,7 +59822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="928" spans="1:13">
+    <row r="928" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>7324</v>
       </c>
@@ -59822,7 +59860,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="929" spans="1:13">
+    <row r="929" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>7331</v>
       </c>
@@ -59860,7 +59898,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="930" spans="1:13">
+    <row r="930" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>7338</v>
       </c>
@@ -59898,7 +59936,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="931" spans="1:13">
+    <row r="931" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>7346</v>
       </c>
@@ -59936,7 +59974,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="932" spans="1:13">
+    <row r="932" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>7354</v>
       </c>
@@ -59974,7 +60012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="933" spans="1:13">
+    <row r="933" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>7362</v>
       </c>
@@ -60012,7 +60050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="934" spans="1:13">
+    <row r="934" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>7369</v>
       </c>
@@ -60050,7 +60088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="935" spans="1:13">
+    <row r="935" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>7376</v>
       </c>
@@ -60088,7 +60126,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="936" spans="1:13">
+    <row r="936" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>7384</v>
       </c>
@@ -60126,7 +60164,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="937" spans="1:13">
+    <row r="937" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>7392</v>
       </c>
@@ -60164,7 +60202,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="938" spans="1:13">
+    <row r="938" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>7399</v>
       </c>
@@ -60202,7 +60240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="939" spans="1:13">
+    <row r="939" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>7407</v>
       </c>
@@ -60240,7 +60278,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="940" spans="1:13">
+    <row r="940" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>7415</v>
       </c>
@@ -60278,7 +60316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="941" spans="1:13">
+    <row r="941" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>7423</v>
       </c>
@@ -60316,7 +60354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="942" spans="1:13">
+    <row r="942" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>7431</v>
       </c>
@@ -60354,7 +60392,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="943" spans="1:13">
+    <row r="943" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>7437</v>
       </c>
@@ -60392,7 +60430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="944" spans="1:13">
+    <row r="944" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>7445</v>
       </c>
@@ -60430,7 +60468,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="945" spans="1:13">
+    <row r="945" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>7452</v>
       </c>
@@ -60468,7 +60506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="946" spans="1:13">
+    <row r="946" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>7459</v>
       </c>
@@ -60506,7 +60544,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="947" spans="1:13">
+    <row r="947" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>7467</v>
       </c>
@@ -60544,7 +60582,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="948" spans="1:13">
+    <row r="948" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>7474</v>
       </c>
@@ -60582,7 +60620,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="949" spans="1:13">
+    <row r="949" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>7481</v>
       </c>
@@ -60620,7 +60658,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="950" spans="1:13">
+    <row r="950" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>7489</v>
       </c>
@@ -60658,7 +60696,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="951" spans="1:13">
+    <row r="951" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>7497</v>
       </c>
@@ -60696,7 +60734,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="952" spans="1:13">
+    <row r="952" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>7504</v>
       </c>
@@ -60734,7 +60772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="953" spans="1:13">
+    <row r="953" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>7511</v>
       </c>
@@ -60772,7 +60810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="954" spans="1:13">
+    <row r="954" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>7519</v>
       </c>
@@ -60810,7 +60848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="955" spans="1:13">
+    <row r="955" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>7526</v>
       </c>
@@ -60848,7 +60886,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="956" spans="1:13">
+    <row r="956" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>7534</v>
       </c>
@@ -60886,7 +60924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="957" spans="1:13">
+    <row r="957" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>7541</v>
       </c>
@@ -60924,7 +60962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="958" spans="1:13">
+    <row r="958" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>7548</v>
       </c>
@@ -60962,7 +61000,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="959" spans="1:13">
+    <row r="959" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>7556</v>
       </c>
@@ -61000,7 +61038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="960" spans="1:13">
+    <row r="960" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>7564</v>
       </c>
@@ -61038,7 +61076,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="961" spans="1:13">
+    <row r="961" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
         <v>7571</v>
       </c>
@@ -61076,7 +61114,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="962" spans="1:13">
+    <row r="962" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>7578</v>
       </c>
@@ -61114,7 +61152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:13">
+    <row r="963" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>7586</v>
       </c>
@@ -61152,7 +61190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="964" spans="1:13">
+    <row r="964" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>7593</v>
       </c>
@@ -61190,7 +61228,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="965" spans="1:13">
+    <row r="965" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>7600</v>
       </c>
@@ -61228,7 +61266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="966" spans="1:13">
+    <row r="966" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>7607</v>
       </c>
@@ -61266,7 +61304,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="967" spans="1:13">
+    <row r="967" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>7615</v>
       </c>
@@ -61304,7 +61342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="968" spans="1:13">
+    <row r="968" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>7622</v>
       </c>
@@ -61342,7 +61380,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="969" spans="1:13">
+    <row r="969" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>7629</v>
       </c>
@@ -61383,7 +61421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="970" spans="1:13">
+    <row r="970" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>7637</v>
       </c>
@@ -61421,7 +61459,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="971" spans="1:13">
+    <row r="971" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>7644</v>
       </c>
@@ -61459,7 +61497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="972" spans="1:13">
+    <row r="972" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>7652</v>
       </c>
@@ -61497,7 +61535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="973" spans="1:13">
+    <row r="973" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>7659</v>
       </c>
@@ -61535,7 +61573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="974" spans="1:13">
+    <row r="974" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>7666</v>
       </c>
@@ -61576,7 +61614,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="975" spans="1:13">
+    <row r="975" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>7674</v>
       </c>
@@ -61614,7 +61652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="976" spans="1:13">
+    <row r="976" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>7681</v>
       </c>
@@ -61652,7 +61690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="1:13">
+    <row r="977" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>7689</v>
       </c>
@@ -61690,7 +61728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="978" spans="1:13">
+    <row r="978" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>7696</v>
       </c>
@@ -61728,7 +61766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="1:13">
+    <row r="979" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>7703</v>
       </c>
@@ -61766,7 +61804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="980" spans="1:13">
+    <row r="980" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>7710</v>
       </c>
@@ -61804,7 +61842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="1:13">
+    <row r="981" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>7717</v>
       </c>
@@ -61842,7 +61880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="982" spans="1:13">
+    <row r="982" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>7725</v>
       </c>
@@ -61880,7 +61918,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="983" spans="1:13">
+    <row r="983" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>7732</v>
       </c>
@@ -61918,7 +61956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="984" spans="1:13">
+    <row r="984" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
         <v>7739</v>
       </c>
@@ -61959,7 +61997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="985" spans="1:13">
+    <row r="985" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
         <v>7747</v>
       </c>
@@ -61997,7 +62035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="986" spans="1:13">
+    <row r="986" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
         <v>7753</v>
       </c>
@@ -62035,7 +62073,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="987" spans="1:13">
+    <row r="987" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
         <v>7760</v>
       </c>
@@ -62073,7 +62111,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="988" spans="1:13">
+    <row r="988" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
         <v>7767</v>
       </c>
@@ -62111,7 +62149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="989" spans="1:13">
+    <row r="989" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
         <v>7775</v>
       </c>
@@ -62149,7 +62187,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="990" spans="1:13">
+    <row r="990" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
         <v>7783</v>
       </c>
@@ -62190,7 +62228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="991" spans="1:13">
+    <row r="991" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
         <v>7789</v>
       </c>
@@ -62228,7 +62266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="992" spans="1:13">
+    <row r="992" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
         <v>7797</v>
       </c>
@@ -62266,7 +62304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="993" spans="1:13">
+    <row r="993" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
         <v>7804</v>
       </c>
@@ -62304,7 +62342,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="994" spans="1:13">
+    <row r="994" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
         <v>7811</v>
       </c>
@@ -62345,7 +62383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="995" spans="1:13">
+    <row r="995" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
         <v>7819</v>
       </c>
@@ -62383,7 +62421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="996" spans="1:13">
+    <row r="996" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
         <v>7826</v>
       </c>
@@ -62421,7 +62459,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="997" spans="1:13">
+    <row r="997" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
         <v>7833</v>
       </c>
@@ -62459,7 +62497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:13">
+    <row r="998" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
         <v>7841</v>
       </c>
@@ -62497,7 +62535,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="999" spans="1:13">
+    <row r="999" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
         <v>7848</v>
       </c>
@@ -62537,5 +62575,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>